--- a/target/test-classes/testdata/testdata.xlsx
+++ b/target/test-classes/testdata/testdata.xlsx
@@ -7,17 +7,14 @@
     <workbookView xWindow="0" yWindow="2520" windowWidth="15150" windowHeight="4620"/>
   </bookViews>
   <sheets>
-    <sheet name="signin" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="signIn" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>email</t>
   </si>
@@ -25,22 +22,16 @@
     <t>password</t>
   </si>
   <si>
-    <t>eo1@seab</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>eo1seab</t>
+    <t>ao1@seab</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>eo1@seab.com</t>
   </si>
   <si>
     <t>a</t>
-  </si>
-  <si>
-    <t>eo1@seab.com</t>
-  </si>
-  <si>
-    <t>c</t>
   </si>
 </sst>
 </file>
@@ -385,16 +376,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -414,59 +404,18 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A4" r:id="rId2"/>
-    <hyperlink ref="A5" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>